--- a/artfynd/A 30842-2022.xlsx
+++ b/artfynd/A 30842-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13264</v>
+        <v>34288</v>
       </c>
       <c r="B2" t="n">
         <v>57586</v>
@@ -713,19 +713,10 @@
           <t>(Laurenti, 1768)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>larv</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>90-044, Venestad, Sk</t>
+          <t>Venestad, Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -735,7 +726,7 @@
         <v>6205010.714962806</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2008-09-01</t>
+          <t>2008-03-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,12 +760,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2008-09-01</t>
+          <t>2008-03-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>glest signalkräftbestånd, Mindre vattensalamander</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -789,12 +785,12 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Marika Stenberg</t>
+          <t>Anders Hallengren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Marika Stenberg, Per Nyström</t>
+          <t>Per Nyström, Marika Stenberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
